--- a/LoanOfficer-A/2023/27 Thongram Rambhabati.xlsx
+++ b/LoanOfficer-A/2023/27 Thongram Rambhabati.xlsx
@@ -766,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>36000</v>
+        <v>34200</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -862,9 +862,15 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="3">
+        <v>45354</v>
+      </c>
+      <c r="C3" s="4">
+        <v>300</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="E3" s="1">
         <v>31</v>
       </c>
@@ -888,9 +894,15 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="3">
+        <v>45354</v>
+      </c>
+      <c r="C4" s="4">
+        <v>300</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="E4" s="1">
         <v>32</v>
       </c>
@@ -914,9 +926,15 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="3">
+        <v>45355</v>
+      </c>
+      <c r="C5" s="4">
+        <v>300</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5" s="1">
         <v>33</v>
       </c>
@@ -940,9 +958,15 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="3">
+        <v>45356</v>
+      </c>
+      <c r="C6" s="4">
+        <v>300</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6" s="1">
         <v>34</v>
       </c>
@@ -966,9 +990,15 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="3">
+        <v>45357</v>
+      </c>
+      <c r="C7" s="4">
+        <v>300</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
       <c r="E7" s="1">
         <v>35</v>
       </c>
@@ -992,9 +1022,15 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="3">
+        <v>45358</v>
+      </c>
+      <c r="C8" s="4">
+        <v>300</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
       <c r="E8" s="1">
         <v>36</v>
       </c>

--- a/LoanOfficer-A/2023/27 Thongram Rambhabati.xlsx
+++ b/LoanOfficer-A/2023/27 Thongram Rambhabati.xlsx
@@ -321,7 +321,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -599,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:D8"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>34200</v>
+        <v>30600</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1054,9 +1054,15 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="3">
+        <v>45359</v>
+      </c>
+      <c r="C9" s="4">
+        <v>300</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1">
         <v>37</v>
       </c>
@@ -1080,9 +1086,15 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="3">
+        <v>45360</v>
+      </c>
+      <c r="C10" s="4">
+        <v>300</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1">
         <v>38</v>
       </c>
@@ -1106,9 +1118,15 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="3">
+        <v>45361</v>
+      </c>
+      <c r="C11" s="4">
+        <v>300</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="1">
         <v>39</v>
       </c>
@@ -1132,9 +1150,15 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="3">
+        <v>45362</v>
+      </c>
+      <c r="C12" s="4">
+        <v>300</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
       <c r="E12" s="1">
         <v>40</v>
       </c>
@@ -1158,9 +1182,15 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="3">
+        <v>45363</v>
+      </c>
+      <c r="C13" s="4">
+        <v>300</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="1">
         <v>41</v>
       </c>
@@ -1184,9 +1214,15 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="3">
+        <v>45364</v>
+      </c>
+      <c r="C14" s="4">
+        <v>300</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="1">
         <v>42</v>
       </c>
@@ -1210,9 +1246,15 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="3">
+        <v>45365</v>
+      </c>
+      <c r="C15" s="4">
+        <v>300</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1">
         <v>43</v>
       </c>
@@ -1236,9 +1278,15 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="3">
+        <v>45366</v>
+      </c>
+      <c r="C16" s="4">
+        <v>300</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
       <c r="E16" s="1">
         <v>44</v>
       </c>
@@ -1262,9 +1310,15 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="3">
+        <v>45367</v>
+      </c>
+      <c r="C17" s="4">
+        <v>300</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
       <c r="E17" s="1">
         <v>45</v>
       </c>
@@ -1288,9 +1342,15 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="3">
+        <v>45368</v>
+      </c>
+      <c r="C18" s="4">
+        <v>300</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
       <c r="E18" s="1">
         <v>46</v>
       </c>
@@ -1314,9 +1374,15 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="3">
+        <v>45369</v>
+      </c>
+      <c r="C19" s="4">
+        <v>300</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
       <c r="E19" s="1">
         <v>47</v>
       </c>
@@ -1340,9 +1406,15 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="3">
+        <v>45370</v>
+      </c>
+      <c r="C20" s="4">
+        <v>300</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
       <c r="E20" s="1">
         <v>48</v>
       </c>
